--- a/RelaatioKanta1.xlsx
+++ b/RelaatioKanta1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3CEB7-773E-4319-9C1F-5D5E64A5215E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D384FFE5-E22F-44CE-B330-13EC7CD7FD95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,7 +971,7 @@
   <dimension ref="B4:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
